--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T22:57:55+00:00</t>
+    <t>2022-09-09T22:32:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -903,24 +903,24 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>所見の有無（Y or N）を指定する</t>
+    <t>Actual result　実際の結果値</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.
 結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP Core仕様】コードに限定する</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>Codes specifying either Yes or No used in fields containing binary answers generally user-specified.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0136</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -937,6 +937,15 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>所見の有無（Y or N）を指定する</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0136</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1187,6 +1196,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1457,8 +1470,8 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-string</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1817,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1827,7 +1840,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1849,7 +1862,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="92.58984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.46484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3817,7 +3830,7 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
@@ -4644,28 +4657,26 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA24" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="AB24" s="2"/>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>273</v>
@@ -4703,9 +4714,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4723,7 +4736,7 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>189</v>
@@ -4732,13 +4745,13 @@
         <v>286</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4763,13 +4776,11 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4787,7 +4798,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4796,7 +4807,7 @@
         <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
@@ -4805,35 +4816,35 @@
         <v>81</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -4848,16 +4859,16 @@
         <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4882,13 +4893,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4906,16 +4917,16 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>103</v>
@@ -4924,28 +4935,28 @@
         <v>81</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>304</v>
+        <v>134</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4964,19 +4975,19 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
@@ -5001,13 +5012,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5025,7 +5036,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5043,24 +5054,24 @@
         <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5071,7 +5082,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>81</v>
@@ -5083,18 +5094,20 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5118,11 +5131,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5140,13 +5155,13 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>81</v>
@@ -5158,24 +5173,24 @@
         <v>81</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5201,17 +5216,15 @@
         <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5239,7 +5252,7 @@
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5257,7 +5270,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5275,24 +5288,24 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5315,18 +5328,20 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5350,13 +5365,11 @@
         <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>81</v>
@@ -5374,7 +5387,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5392,24 +5405,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5432,16 +5445,16 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5491,7 +5504,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5509,24 +5522,24 @@
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5537,7 +5550,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5549,20 +5562,18 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5610,42 +5621,42 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5656,7 +5667,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5668,16 +5679,20 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5725,19 +5740,19 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5746,10 +5761,10 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5760,18 +5775,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
@@ -5783,17 +5798,15 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>81</v>
@@ -5848,13 +5861,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
@@ -5866,7 +5879,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5877,11 +5890,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>368</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5894,26 +5907,24 @@
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5961,7 +5972,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5985,7 +5996,7 @@
         <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5996,39 +6007,43 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6076,19 +6091,19 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>81</v>
@@ -6097,10 +6112,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>134</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6111,7 +6126,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6134,13 +6149,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6191,7 +6206,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6200,7 +6215,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6212,7 +6227,7 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>382</v>
@@ -6249,7 +6264,7 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>189</v>
+        <v>377</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>384</v>
@@ -6257,12 +6272,8 @@
       <c r="L38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6286,13 +6297,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6319,7 +6330,7 @@
         <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>103</v>
@@ -6328,13 +6339,13 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6345,7 +6356,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6356,7 +6367,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6371,16 +6382,16 @@
         <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6405,13 +6416,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>397</v>
+        <v>115</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6429,13 +6440,13 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
@@ -6447,13 +6458,13 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6464,7 +6475,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6475,7 +6486,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
@@ -6487,17 +6498,19 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>401</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6522,13 +6535,13 @@
         <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>401</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>81</v>
@@ -6546,13 +6559,13 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
@@ -6564,13 +6577,13 @@
         <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6581,7 +6594,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6604,16 +6617,18 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6661,7 +6676,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6682,7 +6697,7 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>409</v>
@@ -6707,7 +6722,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -6716,20 +6731,18 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>414</v>
-      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -6784,7 +6797,7 @@
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
@@ -6799,10 +6812,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6813,7 +6826,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6836,16 +6849,16 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6895,7 +6908,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6916,10 +6929,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6930,7 +6943,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6953,20 +6966,18 @@
         <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7014,7 +7025,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7035,10 +7046,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7049,7 +7060,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7060,7 +7071,7 @@
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7069,19 +7080,23 @@
         <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7129,19 +7144,19 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
@@ -7150,10 +7165,10 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7164,18 +7179,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>81</v>
@@ -7187,17 +7202,15 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7252,13 +7265,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>81</v>
@@ -7270,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7281,11 +7294,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7298,26 +7311,24 @@
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7365,7 +7376,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7389,7 +7400,7 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7400,49 +7411,49 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>140</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>81</v>
@@ -7460,11 +7471,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -7482,34 +7495,34 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7517,7 +7530,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7525,7 +7538,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>91</v>
@@ -7540,26 +7553,26 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="K49" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>277</v>
+        <v>208</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>81</v>
@@ -7577,13 +7590,11 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -7601,10 +7612,10 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>91</v>
@@ -7619,24 +7630,24 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>283</v>
+        <v>214</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7656,22 +7667,22 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>189</v>
+        <v>444</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7696,13 +7707,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7720,7 +7731,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7729,7 +7740,7 @@
         <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7738,19 +7749,19 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51">
@@ -7759,14 +7770,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -7781,16 +7792,16 @@
         <v>189</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>297</v>
+        <v>450</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>452</v>
+        <v>292</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7815,13 +7826,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7845,10 +7856,10 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>296</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>103</v>
@@ -7857,19 +7868,19 @@
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>304</v>
+        <v>134</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
@@ -7878,7 +7889,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7897,19 +7908,19 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7934,13 +7945,13 @@
         <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
@@ -7976,18 +7987,137 @@
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>81</v>
       </c>
     </row>
